--- a/Code/Results/Cases/Case_1_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.95752436189025</v>
+        <v>5.948267335492653</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.140930249828605</v>
+        <v>4.42801119425376</v>
       </c>
       <c r="E2">
-        <v>13.21143272805939</v>
+        <v>12.36580534531365</v>
       </c>
       <c r="F2">
-        <v>18.74892791097331</v>
+        <v>22.94271677801676</v>
       </c>
       <c r="G2">
-        <v>2.066318560096484</v>
+        <v>3.616670821718984</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.14131463220937</v>
+        <v>19.27961602937421</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.16430313763605</v>
+        <v>9.783469811797227</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.31691356355233</v>
+        <v>13.7021872114221</v>
       </c>
       <c r="N2">
-        <v>11.74152735235893</v>
+        <v>17.94595292912218</v>
       </c>
       <c r="O2">
-        <v>14.57384115372797</v>
+        <v>20.42392332626658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.556399807395402</v>
+        <v>5.837326059220213</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.00901768123664</v>
+        <v>4.381651027853876</v>
       </c>
       <c r="E3">
-        <v>12.47420839065104</v>
+        <v>12.21535898797659</v>
       </c>
       <c r="F3">
-        <v>18.11168258458069</v>
+        <v>22.8990112739512</v>
       </c>
       <c r="G3">
-        <v>2.071382234299692</v>
+        <v>3.618601388786172</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.40581932580685</v>
+        <v>19.37349864929071</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.29541247848701</v>
+        <v>9.348140205501846</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.26774015594103</v>
+        <v>13.46812139071586</v>
       </c>
       <c r="N3">
-        <v>11.9292696258395</v>
+        <v>18.00322132273351</v>
       </c>
       <c r="O3">
-        <v>14.30469147007629</v>
+        <v>20.44937688565315</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.296466668684145</v>
+        <v>5.76907114511098</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.925246698422739</v>
+        <v>4.352493403077984</v>
       </c>
       <c r="E4">
-        <v>12.01243834431256</v>
+        <v>12.12654945993534</v>
       </c>
       <c r="F4">
-        <v>17.72725452720516</v>
+        <v>22.87897147127876</v>
       </c>
       <c r="G4">
-        <v>2.074587389844025</v>
+        <v>3.619849952815116</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.57376767770347</v>
+        <v>19.43420215985683</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.7344045968681</v>
+        <v>9.068203445303821</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.58920369620156</v>
+        <v>13.32562517399524</v>
       </c>
       <c r="N4">
-        <v>12.04727503115965</v>
+        <v>18.04007561289459</v>
       </c>
       <c r="O4">
-        <v>14.15114077274534</v>
+        <v>20.47017988601452</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.187139806412848</v>
+        <v>5.741260187519431</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.890441128479743</v>
+        <v>4.340442815701769</v>
       </c>
       <c r="E5">
-        <v>11.82218948019955</v>
+        <v>12.09129994339731</v>
       </c>
       <c r="F5">
-        <v>17.57252437296999</v>
+        <v>22.87251950943274</v>
       </c>
       <c r="G5">
-        <v>2.075918268748996</v>
+        <v>3.620374692561144</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.6436034978372</v>
+        <v>19.45971023999928</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.49893569903021</v>
+        <v>8.951034769721874</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.30403270454902</v>
+        <v>13.26794260146882</v>
       </c>
       <c r="N5">
-        <v>12.09606813911924</v>
+        <v>18.05552055076792</v>
       </c>
       <c r="O5">
-        <v>14.0914987011182</v>
+        <v>20.47995570002183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.168781689438256</v>
+        <v>5.736643528332349</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.884622264405001</v>
+        <v>4.338431802390224</v>
       </c>
       <c r="E6">
-        <v>11.79048078455656</v>
+        <v>12.08550488416095</v>
       </c>
       <c r="F6">
-        <v>17.54695411102653</v>
+        <v>22.87155184073621</v>
       </c>
       <c r="G6">
-        <v>2.076140772231661</v>
+        <v>3.620462789408518</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.65528405326119</v>
+        <v>19.46399244678339</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.45942460534294</v>
+        <v>8.93139505660468</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.25615659494679</v>
+        <v>13.25839005706573</v>
       </c>
       <c r="N6">
-        <v>12.1042132952633</v>
+        <v>18.05811096774686</v>
       </c>
       <c r="O6">
-        <v>14.08177162576139</v>
+        <v>20.48165729774984</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.29500597937814</v>
+        <v>5.768696012237593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.924779962214411</v>
+        <v>4.352331560089262</v>
       </c>
       <c r="E7">
-        <v>12.00988065807772</v>
+        <v>12.12607020502815</v>
       </c>
       <c r="F7">
-        <v>17.72515970064163</v>
+        <v>22.87887751022323</v>
       </c>
       <c r="G7">
-        <v>2.07460523754545</v>
+        <v>3.619856965031929</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.57470385389057</v>
+        <v>19.43454304718223</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.73125663176585</v>
+        <v>9.066635662582083</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.58539287830959</v>
+        <v>13.32484558052552</v>
       </c>
       <c r="N7">
-        <v>12.04793019411323</v>
+        <v>18.04028218015156</v>
       </c>
       <c r="O7">
-        <v>14.15032457586387</v>
+        <v>20.47030647282988</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.822062080924261</v>
+        <v>5.910065547528548</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.09603995616508</v>
+        <v>4.412173136818782</v>
       </c>
       <c r="E8">
-        <v>12.95924533528486</v>
+        <v>12.31321895538206</v>
       </c>
       <c r="F8">
-        <v>18.52790696676087</v>
+        <v>22.92624063307348</v>
       </c>
       <c r="G8">
-        <v>2.068044953768694</v>
+        <v>3.61732339708083</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.23136657907663</v>
+        <v>19.31135281140978</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.87044939447668</v>
+        <v>9.636040084721143</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.96226559410001</v>
+        <v>13.62127502455996</v>
       </c>
       <c r="N8">
-        <v>11.80570531351843</v>
+        <v>17.96534879380149</v>
       </c>
       <c r="O8">
-        <v>14.47860342517008</v>
+        <v>20.43162428340154</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.746553550282949</v>
+        <v>6.184592473256418</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.408695705589674</v>
+        <v>4.523796255867425</v>
       </c>
       <c r="E9">
-        <v>14.74137263329801</v>
+        <v>12.70643943349114</v>
       </c>
       <c r="F9">
-        <v>20.1478533892586</v>
+        <v>23.07270803207674</v>
       </c>
       <c r="G9">
-        <v>2.055913460813896</v>
+        <v>3.612854137188116</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.60202934670361</v>
+        <v>19.093974766686</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.88446181163424</v>
+        <v>10.64916979409083</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.39170758194501</v>
+        <v>14.20882730023885</v>
       </c>
       <c r="N9">
-        <v>11.35150353218583</v>
+        <v>17.83176710861391</v>
       </c>
       <c r="O9">
-        <v>15.21540831237674</v>
+        <v>20.39692495600039</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.358644571061028</v>
+        <v>6.382562217798113</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.622927507077798</v>
+        <v>4.602013694741309</v>
       </c>
       <c r="E10">
-        <v>16.11611595650596</v>
+        <v>13.00844453489782</v>
       </c>
       <c r="F10">
-        <v>21.35565592939347</v>
+        <v>23.21242157323974</v>
       </c>
       <c r="G10">
-        <v>2.047404742820063</v>
+        <v>3.609871579216561</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.16656108946663</v>
+        <v>18.94891167636167</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.22906345427821</v>
+        <v>11.32700994188589</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.01504376374756</v>
+        <v>14.63980018546209</v>
       </c>
       <c r="N10">
-        <v>11.02920838416865</v>
+        <v>17.74169001198439</v>
       </c>
       <c r="O10">
-        <v>15.81324469638034</v>
+        <v>20.39662458055399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.622489807499759</v>
+        <v>6.471403168377099</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.716797295089884</v>
+        <v>4.636712319607071</v>
       </c>
       <c r="E11">
-        <v>16.75389460630988</v>
+        <v>13.14804878080704</v>
       </c>
       <c r="F11">
-        <v>21.90717571677053</v>
+        <v>23.28279315061996</v>
       </c>
       <c r="G11">
-        <v>2.043611570729337</v>
+        <v>3.608579409638112</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.97438496257847</v>
+        <v>18.88607613352863</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.81150194607485</v>
+        <v>11.62040391248958</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.71938484677919</v>
+        <v>14.83479071875039</v>
       </c>
       <c r="N11">
-        <v>10.88476910724841</v>
+        <v>17.70244575917745</v>
       </c>
       <c r="O11">
-        <v>16.09735597927045</v>
+        <v>20.40196806094457</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.720303466460258</v>
+        <v>6.504837937601839</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.7518118443311</v>
+        <v>4.649719853891439</v>
       </c>
       <c r="E12">
-        <v>16.99190365813124</v>
+        <v>13.20117944286636</v>
       </c>
       <c r="F12">
-        <v>22.11620471593679</v>
+        <v>23.31040484507721</v>
       </c>
       <c r="G12">
-        <v>2.042185442249356</v>
+        <v>3.608099337481424</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.90247788909917</v>
+        <v>18.86273392520587</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.02787349624951</v>
+        <v>11.72931912684763</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.98128017791868</v>
+        <v>14.90840305049872</v>
       </c>
       <c r="N12">
-        <v>10.83036095321492</v>
+        <v>17.68783281484702</v>
       </c>
       <c r="O12">
-        <v>16.20667556438137</v>
+        <v>20.40477919750772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.699330851581587</v>
+        <v>6.497646881686099</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.744294727246908</v>
+        <v>4.646924402822247</v>
       </c>
       <c r="E13">
-        <v>16.94079822861894</v>
+        <v>13.18972584493375</v>
       </c>
       <c r="F13">
-        <v>22.07118018540347</v>
+        <v>23.30441560145131</v>
       </c>
       <c r="G13">
-        <v>2.042492142741115</v>
+        <v>3.608202319199118</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.91792556819075</v>
+        <v>18.8677409947293</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.98145976538272</v>
+        <v>11.70596003960136</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.92508942902294</v>
+        <v>14.89256052450778</v>
       </c>
       <c r="N13">
-        <v>10.84206632930562</v>
+        <v>17.69096896120004</v>
       </c>
       <c r="O13">
-        <v>16.1830547788479</v>
+        <v>20.40413874956223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.630579046303366</v>
+        <v>6.474158202273034</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.719688708765927</v>
+        <v>4.637785133152412</v>
       </c>
       <c r="E14">
-        <v>16.77354534876334</v>
+        <v>13.15241485663048</v>
       </c>
       <c r="F14">
-        <v>21.92436963543015</v>
+        <v>23.28504557188273</v>
       </c>
       <c r="G14">
-        <v>2.043494041846741</v>
+        <v>3.608539728806325</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.96845166983128</v>
+        <v>18.88414669989976</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.82938670614317</v>
+        <v>11.6294084386177</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.74102729097486</v>
+        <v>14.84085179691615</v>
       </c>
       <c r="N14">
-        <v>10.88028729333572</v>
+        <v>17.7012385793445</v>
       </c>
       <c r="O14">
-        <v>16.106315115861</v>
+        <v>20.40218355303417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.588193317421915</v>
+        <v>6.459742770606619</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.70454709652337</v>
+        <v>4.632169716409781</v>
       </c>
       <c r="E15">
-        <v>16.67064505936353</v>
+        <v>13.12959379391134</v>
       </c>
       <c r="F15">
-        <v>21.83446432288542</v>
+        <v>23.27330582717219</v>
       </c>
       <c r="G15">
-        <v>2.0441090434208</v>
+        <v>3.608747604453305</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.99951364404378</v>
+        <v>18.89425452453221</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.73569321567256</v>
+        <v>11.58223265243727</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.62765840144052</v>
+        <v>14.80914709687202</v>
       </c>
       <c r="N15">
-        <v>10.90373546674932</v>
+        <v>17.70756128193008</v>
       </c>
       <c r="O15">
-        <v>16.05953511773846</v>
+        <v>20.4010884955233</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.34110787489492</v>
+        <v>6.376728959145013</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.616719300864418</v>
+        <v>4.599727850287882</v>
       </c>
       <c r="E16">
-        <v>16.07393947969308</v>
+        <v>12.9993611512772</v>
       </c>
       <c r="F16">
-        <v>21.31964398447212</v>
+        <v>23.20795839205972</v>
       </c>
       <c r="G16">
-        <v>2.047654121041488</v>
+        <v>3.609957321687258</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.17924051188127</v>
+        <v>18.95308148520201</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.19041286988624</v>
+        <v>11.30753174456031</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.9683337140564</v>
+        <v>14.62702936416538</v>
       </c>
       <c r="N16">
-        <v>11.03868949453923</v>
+        <v>17.74428947993001</v>
       </c>
       <c r="O16">
-        <v>15.79492059908284</v>
+        <v>20.39638563003846</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.18578930424369</v>
+        <v>6.325467446037345</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.561909147246964</v>
+        <v>4.579595990241964</v>
       </c>
       <c r="E17">
-        <v>15.70152644596102</v>
+        <v>12.91999806627083</v>
       </c>
       <c r="F17">
-        <v>21.00425942573607</v>
+        <v>23.16960419190636</v>
       </c>
       <c r="G17">
-        <v>2.04984815147473</v>
+        <v>3.610715959207468</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.29102227535252</v>
+        <v>18.98997686505754</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.84842443672265</v>
+        <v>11.13515277951774</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.55517631886694</v>
+        <v>14.51498076068052</v>
       </c>
       <c r="N17">
-        <v>11.12201909940429</v>
+        <v>17.7672639318997</v>
       </c>
       <c r="O17">
-        <v>15.63568979434096</v>
+        <v>20.39490411936579</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.095079891497804</v>
+        <v>6.295870506041201</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.530047152804029</v>
+        <v>4.567933872038886</v>
       </c>
       <c r="E18">
-        <v>15.48495762165589</v>
+        <v>12.87456274564441</v>
       </c>
       <c r="F18">
-        <v>20.82306035553894</v>
+        <v>23.14818644788525</v>
       </c>
       <c r="G18">
-        <v>2.05111744932388</v>
+        <v>3.611158391697471</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.35587231750837</v>
+        <v>19.01149509611059</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.6489689614851</v>
+        <v>11.03459862305342</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.31432177832874</v>
+        <v>14.45043770359476</v>
       </c>
       <c r="N18">
-        <v>11.17015431199443</v>
+        <v>17.78064134314857</v>
       </c>
       <c r="O18">
-        <v>15.54524916828822</v>
+        <v>20.39456787167888</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.064131249644932</v>
+        <v>6.285831157259847</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.519201945504321</v>
+        <v>4.563971216293273</v>
       </c>
       <c r="E19">
-        <v>15.41122179334161</v>
+        <v>12.8592172194155</v>
       </c>
       <c r="F19">
-        <v>20.7617481663468</v>
+        <v>23.14104560591021</v>
       </c>
       <c r="G19">
-        <v>2.051548499838029</v>
+        <v>3.611309238137685</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.37792458258408</v>
+        <v>19.01883184834316</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.58096360382098</v>
+        <v>11.00031237065053</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.23221759045162</v>
+        <v>14.42857040230452</v>
       </c>
       <c r="N19">
-        <v>11.18648822212755</v>
+        <v>17.78519875336805</v>
       </c>
       <c r="O19">
-        <v>15.51482460686073</v>
+        <v>20.3945426267072</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.202465471000577</v>
+        <v>6.330936223710125</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.567778748593499</v>
+        <v>4.58174766874063</v>
       </c>
       <c r="E20">
-        <v>15.74141470288886</v>
+        <v>12.92842482790214</v>
       </c>
       <c r="F20">
-        <v>21.03781271064071</v>
+        <v>23.17362067175164</v>
       </c>
       <c r="G20">
-        <v>2.049613838705663</v>
+        <v>3.610634571589291</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.27906526977447</v>
+        <v>18.9860185619683</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.8851144953115</v>
+        <v>11.1536486442584</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.59949003418469</v>
+        <v>14.52691897107474</v>
       </c>
       <c r="N20">
-        <v>11.11312735240829</v>
+        <v>17.76480138853577</v>
       </c>
       <c r="O20">
-        <v>15.65252182338456</v>
+        <v>20.3950084377379</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.650830060952181</v>
+        <v>6.481063274207514</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.726930647489321</v>
+        <v>4.640473182861142</v>
       </c>
       <c r="E21">
-        <v>16.82276579354653</v>
+        <v>13.16336721755073</v>
       </c>
       <c r="F21">
-        <v>21.967487380906</v>
+        <v>23.29070900986621</v>
       </c>
       <c r="G21">
-        <v>2.043199488565277</v>
+        <v>3.608440372904171</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.95358728866137</v>
+        <v>18.87931568333416</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.87416764672158</v>
+        <v>11.65195309784314</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.79522099803507</v>
+        <v>14.85604661844052</v>
       </c>
       <c r="N21">
-        <v>10.86905326155669</v>
+        <v>17.69821542150839</v>
       </c>
       <c r="O21">
-        <v>16.12880849370681</v>
+        <v>20.40273647046624</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.931631021956138</v>
+        <v>6.577957526235434</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.827839265755117</v>
+        <v>4.678081570278289</v>
       </c>
       <c r="E22">
-        <v>17.50912461255234</v>
+        <v>13.31843897467764</v>
       </c>
       <c r="F22">
-        <v>22.57609805163317</v>
+        <v>23.3728402112031</v>
       </c>
       <c r="G22">
-        <v>2.039066708654848</v>
+        <v>3.607060199418664</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.74592613902234</v>
+        <v>18.81221462625808</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.49619120650317</v>
+        <v>11.96486592110923</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.54863115928417</v>
+        <v>15.06979935133841</v>
       </c>
       <c r="N22">
-        <v>10.71120213790177</v>
+        <v>17.65614269189029</v>
       </c>
       <c r="O22">
-        <v>16.45018473865555</v>
+        <v>20.41237773391557</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.782880530464601</v>
+        <v>6.526365335254153</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.774271487510348</v>
+        <v>4.658081565216973</v>
       </c>
       <c r="E23">
-        <v>17.14462854526526</v>
+        <v>13.2355525189938</v>
       </c>
       <c r="F23">
-        <v>22.25121104230056</v>
+        <v>23.32849807435793</v>
       </c>
       <c r="G23">
-        <v>2.041267326099079</v>
+        <v>3.607791910879255</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.85628984672172</v>
+        <v>18.84778701820612</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.16642790705702</v>
+        <v>11.79903593310512</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.14906043133738</v>
+        <v>14.95586264497841</v>
       </c>
       <c r="N23">
-        <v>10.7953064218222</v>
+        <v>17.67846583612985</v>
       </c>
       <c r="O23">
-        <v>16.2777406444041</v>
+        <v>20.40681226429503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.194930582472029</v>
+        <v>6.328464179350712</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.565126193557905</v>
+        <v>4.580775168730222</v>
       </c>
       <c r="E24">
-        <v>15.72338890302749</v>
+        <v>12.92461448814959</v>
       </c>
       <c r="F24">
-        <v>21.02264288828723</v>
+        <v>23.17180284945842</v>
       </c>
       <c r="G24">
-        <v>2.04971974677237</v>
+        <v>3.610671347360737</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.28446921019981</v>
+        <v>18.9878071556903</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.86853577251978</v>
+        <v>11.14529118124353</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.57946616586489</v>
+        <v>14.52152208928561</v>
       </c>
       <c r="N24">
-        <v>11.11714659946746</v>
+        <v>17.76591417757723</v>
       </c>
       <c r="O24">
-        <v>15.64490862540307</v>
+        <v>20.3949596696228</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.508217621871371</v>
+        <v>6.110834687952604</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.326745442485892</v>
+        <v>4.494243883778375</v>
       </c>
       <c r="E25">
-        <v>14.26862640003171</v>
+        <v>12.59754841813815</v>
       </c>
       <c r="F25">
-        <v>19.70584455419331</v>
+        <v>23.02739866717607</v>
       </c>
       <c r="G25">
-        <v>2.059121107363397</v>
+        <v>3.614010098192242</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.76757502381166</v>
+        <v>19.15020192299665</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.36332632883941</v>
+        <v>10.38656180348286</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.76313619388227</v>
+        <v>14.04968220159312</v>
       </c>
       <c r="N25">
-        <v>11.47227816311976</v>
+        <v>17.86648234540651</v>
       </c>
       <c r="O25">
-        <v>15.00612222048475</v>
+        <v>20.4018929221796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_248/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_248/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.948267335492653</v>
+        <v>6.957524361890198</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.42801119425376</v>
+        <v>4.140930249828672</v>
       </c>
       <c r="E2">
-        <v>12.36580534531365</v>
+        <v>13.21143272805941</v>
       </c>
       <c r="F2">
-        <v>22.94271677801676</v>
+        <v>18.74892791097312</v>
       </c>
       <c r="G2">
-        <v>3.616670821718984</v>
+        <v>2.066318560096215</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.27961602937421</v>
+        <v>12.14131463220928</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.783469811797227</v>
+        <v>15.16430313763611</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.7021872114221</v>
+        <v>16.31691356355238</v>
       </c>
       <c r="N2">
-        <v>17.94595292912218</v>
+        <v>11.74152735235883</v>
       </c>
       <c r="O2">
-        <v>20.42392332626658</v>
+        <v>14.57384115372782</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.837326059220213</v>
+        <v>6.55639980739537</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.381651027853876</v>
+        <v>4.009017681236437</v>
       </c>
       <c r="E3">
-        <v>12.21535898797659</v>
+        <v>12.47420839065108</v>
       </c>
       <c r="F3">
-        <v>22.8990112739512</v>
+        <v>18.11168258458067</v>
       </c>
       <c r="G3">
-        <v>3.618601388786172</v>
+        <v>2.071382234300093</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.37349864929071</v>
+        <v>12.40581932580685</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.348140205501846</v>
+        <v>14.29541247848704</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.46812139071586</v>
+        <v>15.26774015594103</v>
       </c>
       <c r="N3">
-        <v>18.00322132273351</v>
+        <v>11.92926962583939</v>
       </c>
       <c r="O3">
-        <v>20.44937688565315</v>
+        <v>14.30469147007616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.76907114511098</v>
+        <v>6.296466668684145</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.352493403077984</v>
+        <v>3.925246698422728</v>
       </c>
       <c r="E4">
-        <v>12.12654945993534</v>
+        <v>12.01243834431255</v>
       </c>
       <c r="F4">
-        <v>22.87897147127876</v>
+        <v>17.72725452720513</v>
       </c>
       <c r="G4">
-        <v>3.619849952815116</v>
+        <v>2.074587389844292</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.43420215985683</v>
+        <v>12.57376767770347</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.068203445303821</v>
+        <v>13.73440459686817</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.32562517399524</v>
+        <v>14.58920369620162</v>
       </c>
       <c r="N4">
-        <v>18.04007561289459</v>
+        <v>12.04727503115965</v>
       </c>
       <c r="O4">
-        <v>20.47017988601452</v>
+        <v>14.15114077274528</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.741260187519431</v>
+        <v>6.187139806412848</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.340442815701769</v>
+        <v>3.890441128479754</v>
       </c>
       <c r="E5">
-        <v>12.09129994339731</v>
+        <v>11.82218948019962</v>
       </c>
       <c r="F5">
-        <v>22.87251950943274</v>
+        <v>17.57252437296987</v>
       </c>
       <c r="G5">
-        <v>3.620374692561144</v>
+        <v>2.075918268748995</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.45971023999928</v>
+        <v>12.6436034978371</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.951034769721874</v>
+        <v>13.49893569903027</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.26794260146882</v>
+        <v>14.30403270454902</v>
       </c>
       <c r="N5">
-        <v>18.05552055076792</v>
+        <v>12.09606813911914</v>
       </c>
       <c r="O5">
-        <v>20.47995570002183</v>
+        <v>14.09149870111808</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.736643528332349</v>
+        <v>6.168781689438248</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.338431802390224</v>
+        <v>3.884622264404985</v>
       </c>
       <c r="E6">
-        <v>12.08550488416095</v>
+        <v>11.79048078455662</v>
       </c>
       <c r="F6">
-        <v>22.87155184073621</v>
+        <v>17.54695411102638</v>
       </c>
       <c r="G6">
-        <v>3.620462789408518</v>
+        <v>2.07614077223166</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.46399244678339</v>
+        <v>12.65528405326115</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.93139505660468</v>
+        <v>13.45942460534306</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.25839005706573</v>
+        <v>14.25615659494681</v>
       </c>
       <c r="N6">
-        <v>18.05811096774686</v>
+        <v>12.10421329526324</v>
       </c>
       <c r="O6">
-        <v>20.48165729774984</v>
+        <v>14.0817716257612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.768696012237593</v>
+        <v>6.295005979378142</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.352331560089262</v>
+        <v>3.924779962214395</v>
       </c>
       <c r="E7">
-        <v>12.12607020502815</v>
+        <v>12.00988065807777</v>
       </c>
       <c r="F7">
-        <v>22.87887751022323</v>
+        <v>17.72515970064134</v>
       </c>
       <c r="G7">
-        <v>3.619856965031929</v>
+        <v>2.074605237545183</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.43454304718223</v>
+        <v>12.57470385389047</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.066635662582083</v>
+        <v>13.731256631766</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.32484558052552</v>
+        <v>14.58539287830963</v>
       </c>
       <c r="N7">
-        <v>18.04028218015156</v>
+        <v>12.0479301941131</v>
       </c>
       <c r="O7">
-        <v>20.47030647282988</v>
+        <v>14.15032457586357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.910065547528548</v>
+        <v>6.822062080924292</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.412173136818782</v>
+        <v>4.09603995616487</v>
       </c>
       <c r="E8">
-        <v>12.31321895538206</v>
+        <v>12.95924533528486</v>
       </c>
       <c r="F8">
-        <v>22.92624063307348</v>
+        <v>18.52790696676087</v>
       </c>
       <c r="G8">
-        <v>3.61732339708083</v>
+        <v>2.068044953768693</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.31135281140978</v>
+        <v>12.2313665790766</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.636040084721143</v>
+        <v>14.87044939447678</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.62127502455996</v>
+        <v>15.96226559410002</v>
       </c>
       <c r="N8">
-        <v>17.96534879380149</v>
+        <v>11.80570531351843</v>
       </c>
       <c r="O8">
-        <v>20.43162428340154</v>
+        <v>14.47860342517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.184592473256418</v>
+        <v>7.746553550282906</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.523796255867425</v>
+        <v>4.408695705589778</v>
       </c>
       <c r="E9">
-        <v>12.70643943349114</v>
+        <v>14.74137263329801</v>
       </c>
       <c r="F9">
-        <v>23.07270803207674</v>
+        <v>20.14785338925851</v>
       </c>
       <c r="G9">
-        <v>3.612854137188116</v>
+        <v>2.055913460813898</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.093974766686</v>
+        <v>11.60202934670355</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.64916979409083</v>
+        <v>16.8844618116343</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.20882730023885</v>
+        <v>18.39170758194503</v>
       </c>
       <c r="N9">
-        <v>17.83176710861391</v>
+        <v>11.35150353218576</v>
       </c>
       <c r="O9">
-        <v>20.39692495600039</v>
+        <v>15.21540831237666</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.382562217798113</v>
+        <v>8.358644571061054</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.602013694741309</v>
+        <v>4.622927507077822</v>
       </c>
       <c r="E10">
-        <v>13.00844453489782</v>
+        <v>16.116115956506</v>
       </c>
       <c r="F10">
-        <v>23.21242157323974</v>
+        <v>21.35565592939339</v>
       </c>
       <c r="G10">
-        <v>3.609871579216561</v>
+        <v>2.04740474281993</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.94891167636167</v>
+        <v>11.16656108946653</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.32700994188589</v>
+        <v>18.22906345427825</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.63980018546209</v>
+        <v>20.0150437637476</v>
       </c>
       <c r="N10">
-        <v>17.74169001198439</v>
+        <v>11.02920838416858</v>
       </c>
       <c r="O10">
-        <v>20.39662458055399</v>
+        <v>15.81324469638028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.471403168377099</v>
+        <v>8.622489807499793</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.636712319607071</v>
+        <v>4.71679729508989</v>
       </c>
       <c r="E11">
-        <v>13.14804878080704</v>
+        <v>16.75389460630989</v>
       </c>
       <c r="F11">
-        <v>23.28279315061996</v>
+        <v>21.90717571677048</v>
       </c>
       <c r="G11">
-        <v>3.608579409638112</v>
+        <v>2.043611570729607</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.88607613352863</v>
+        <v>10.97438496257837</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.62040391248958</v>
+        <v>18.81150194607488</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.83479071875039</v>
+        <v>20.71938484677922</v>
       </c>
       <c r="N11">
-        <v>17.70244575917745</v>
+        <v>10.88476910724838</v>
       </c>
       <c r="O11">
-        <v>20.40196806094457</v>
+        <v>16.09735597927036</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.504837937601839</v>
+        <v>8.720303466460242</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.649719853891439</v>
+        <v>4.751811844331117</v>
       </c>
       <c r="E12">
-        <v>13.20117944286636</v>
+        <v>16.99190365813123</v>
       </c>
       <c r="F12">
-        <v>23.31040484507721</v>
+        <v>22.11620471593672</v>
       </c>
       <c r="G12">
-        <v>3.608099337481424</v>
+        <v>2.042185442249089</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.86273392520587</v>
+        <v>10.9024778890991</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.72931912684763</v>
+        <v>19.02787349624953</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.90840305049872</v>
+        <v>20.98128017791872</v>
       </c>
       <c r="N12">
-        <v>17.68783281484702</v>
+        <v>10.83036095321485</v>
       </c>
       <c r="O12">
-        <v>20.40477919750772</v>
+        <v>16.2066755643813</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.497646881686099</v>
+        <v>8.699330851581621</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.646924402822247</v>
+        <v>4.744294727246915</v>
       </c>
       <c r="E13">
-        <v>13.18972584493375</v>
+        <v>16.94079822861902</v>
       </c>
       <c r="F13">
-        <v>23.30441560145131</v>
+        <v>22.07118018540347</v>
       </c>
       <c r="G13">
-        <v>3.608202319199118</v>
+        <v>2.042492142740982</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.8677409947293</v>
+        <v>10.91792556819069</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.70596003960136</v>
+        <v>18.98145976538272</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.89256052450778</v>
+        <v>20.92508942902299</v>
       </c>
       <c r="N13">
-        <v>17.69096896120004</v>
+        <v>10.84206632930562</v>
       </c>
       <c r="O13">
-        <v>20.40413874956223</v>
+        <v>16.1830547788479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.474158202273034</v>
+        <v>8.630579046303325</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.637785133152412</v>
+        <v>4.719688708765854</v>
       </c>
       <c r="E14">
-        <v>13.15241485663048</v>
+        <v>16.77354534876333</v>
       </c>
       <c r="F14">
-        <v>23.28504557188273</v>
+        <v>21.92436963543009</v>
       </c>
       <c r="G14">
-        <v>3.608539728806325</v>
+        <v>2.043494041846741</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.88414669989976</v>
+        <v>10.96845166983112</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.6294084386177</v>
+        <v>18.82938670614318</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.84085179691615</v>
+        <v>20.74102729097484</v>
       </c>
       <c r="N14">
-        <v>17.7012385793445</v>
+        <v>10.88028729333555</v>
       </c>
       <c r="O14">
-        <v>20.40218355303417</v>
+        <v>16.10631511586091</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.459742770606619</v>
+        <v>8.588193317421897</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.632169716409781</v>
+        <v>4.70454709652333</v>
       </c>
       <c r="E15">
-        <v>13.12959379391134</v>
+        <v>16.6706450593635</v>
       </c>
       <c r="F15">
-        <v>23.27330582717219</v>
+        <v>21.83446432288536</v>
       </c>
       <c r="G15">
-        <v>3.608747604453305</v>
+        <v>2.044109043420666</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.89425452453221</v>
+        <v>10.99951364404368</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.58223265243727</v>
+        <v>18.73569321567259</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.80914709687202</v>
+        <v>20.62765840144051</v>
       </c>
       <c r="N15">
-        <v>17.70756128193008</v>
+        <v>10.90373546674926</v>
       </c>
       <c r="O15">
-        <v>20.4010884955233</v>
+        <v>16.05953511773836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.376728959145013</v>
+        <v>8.341107874894977</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.599727850287882</v>
+        <v>4.616719300864418</v>
       </c>
       <c r="E16">
-        <v>12.9993611512772</v>
+        <v>16.07393947969308</v>
       </c>
       <c r="F16">
-        <v>23.20795839205972</v>
+        <v>21.31964398447207</v>
       </c>
       <c r="G16">
-        <v>3.609957321687258</v>
+        <v>2.047654121041487</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.95308148520201</v>
+        <v>11.1792405118812</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.30753174456031</v>
+        <v>18.19041286988633</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.62702936416538</v>
+        <v>19.96833371405646</v>
       </c>
       <c r="N16">
-        <v>17.74428947993001</v>
+        <v>11.03868949453923</v>
       </c>
       <c r="O16">
-        <v>20.39638563003846</v>
+        <v>15.79492059908277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.325467446037345</v>
+        <v>8.185789304243754</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.579595990241964</v>
+        <v>4.561909147247004</v>
       </c>
       <c r="E17">
-        <v>12.91999806627083</v>
+        <v>15.70152644596105</v>
       </c>
       <c r="F17">
-        <v>23.16960419190636</v>
+        <v>21.004259425736</v>
       </c>
       <c r="G17">
-        <v>3.610715959207468</v>
+        <v>2.04984815147473</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.98997686505754</v>
+        <v>11.29102227535243</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.13515277951774</v>
+        <v>17.84842443672269</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.51498076068052</v>
+        <v>19.55517631886698</v>
       </c>
       <c r="N17">
-        <v>17.7672639318997</v>
+        <v>11.12201909940426</v>
       </c>
       <c r="O17">
-        <v>20.39490411936579</v>
+        <v>15.63568979434088</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.295870506041201</v>
+        <v>8.095079891497823</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.567933872038886</v>
+        <v>4.53004715280407</v>
       </c>
       <c r="E18">
-        <v>12.87456274564441</v>
+        <v>15.48495762165592</v>
       </c>
       <c r="F18">
-        <v>23.14818644788525</v>
+        <v>20.82306035553887</v>
       </c>
       <c r="G18">
-        <v>3.611158391697471</v>
+        <v>2.051117449324013</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.01149509611059</v>
+        <v>11.35587231750833</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.03459862305342</v>
+        <v>17.64896896148515</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.45043770359476</v>
+        <v>19.31432177832879</v>
       </c>
       <c r="N18">
-        <v>17.78064134314857</v>
+        <v>11.17015431199439</v>
       </c>
       <c r="O18">
-        <v>20.39456787167888</v>
+        <v>15.54524916828814</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.285831157259847</v>
+        <v>8.064131249644854</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.563971216293273</v>
+        <v>4.519201945504451</v>
       </c>
       <c r="E19">
-        <v>12.8592172194155</v>
+        <v>15.41122179334162</v>
       </c>
       <c r="F19">
-        <v>23.14104560591021</v>
+        <v>20.7617481663467</v>
       </c>
       <c r="G19">
-        <v>3.611309238137685</v>
+        <v>2.051548499838028</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.01883184834316</v>
+        <v>11.37792458258402</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.00031237065053</v>
+        <v>17.58096360382107</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.42857040230452</v>
+        <v>19.23221759045169</v>
       </c>
       <c r="N19">
-        <v>17.78519875336805</v>
+        <v>11.18648822212748</v>
       </c>
       <c r="O19">
-        <v>20.3945426267072</v>
+        <v>15.51482460686061</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.330936223710125</v>
+        <v>8.202465471000613</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.58174766874063</v>
+        <v>4.567778748593492</v>
       </c>
       <c r="E20">
-        <v>12.92842482790214</v>
+        <v>15.74141470288888</v>
       </c>
       <c r="F20">
-        <v>23.17362067175164</v>
+        <v>21.0378127106407</v>
       </c>
       <c r="G20">
-        <v>3.610634571589291</v>
+        <v>2.049613838705662</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.9860185619683</v>
+        <v>11.27906526977438</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.1536486442584</v>
+        <v>17.88511449531153</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.52691897107474</v>
+        <v>19.59949003418474</v>
       </c>
       <c r="N20">
-        <v>17.76480138853577</v>
+        <v>11.11312735240826</v>
       </c>
       <c r="O20">
-        <v>20.3950084377379</v>
+        <v>15.65252182338451</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.481063274207514</v>
+        <v>8.650830060952241</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.640473182861142</v>
+        <v>4.726930647489192</v>
       </c>
       <c r="E21">
-        <v>13.16336721755073</v>
+        <v>16.82276579354657</v>
       </c>
       <c r="F21">
-        <v>23.29070900986621</v>
+        <v>21.96748738090592</v>
       </c>
       <c r="G21">
-        <v>3.608440372904171</v>
+        <v>2.043199488565411</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.87931568333416</v>
+        <v>10.95358728866128</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.65195309784314</v>
+        <v>18.87416764672165</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.85604661844052</v>
+        <v>20.79522099803513</v>
       </c>
       <c r="N21">
-        <v>17.69821542150839</v>
+        <v>10.86905326155665</v>
       </c>
       <c r="O21">
-        <v>20.40273647046624</v>
+        <v>16.12880849370671</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.577957526235434</v>
+        <v>8.931631021956113</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.678081570278289</v>
+        <v>4.827839265755149</v>
       </c>
       <c r="E22">
-        <v>13.31843897467764</v>
+        <v>17.50912461255231</v>
       </c>
       <c r="F22">
-        <v>23.3728402112031</v>
+        <v>22.57609805163315</v>
       </c>
       <c r="G22">
-        <v>3.607060199418664</v>
+        <v>2.039066708654847</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.81221462625808</v>
+        <v>10.74592613902234</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.96486592110923</v>
+        <v>19.49619120650326</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.06979935133841</v>
+        <v>21.54863115928421</v>
       </c>
       <c r="N22">
-        <v>17.65614269189029</v>
+        <v>10.71120213790173</v>
       </c>
       <c r="O22">
-        <v>20.41237773391557</v>
+        <v>16.45018473865549</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.526365335254153</v>
+        <v>8.78288053046462</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.658081565216973</v>
+        <v>4.774271487510187</v>
       </c>
       <c r="E23">
-        <v>13.2355525189938</v>
+        <v>17.14462854526522</v>
       </c>
       <c r="F23">
-        <v>23.32849807435793</v>
+        <v>22.25121104230056</v>
       </c>
       <c r="G23">
-        <v>3.607791910879255</v>
+        <v>2.041267326099212</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.84778701820612</v>
+        <v>10.85628984672178</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.79903593310512</v>
+        <v>19.16642790705707</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.95586264497841</v>
+        <v>21.14906043133736</v>
       </c>
       <c r="N23">
-        <v>17.67846583612985</v>
+        <v>10.79530642182223</v>
       </c>
       <c r="O23">
-        <v>20.40681226429503</v>
+        <v>16.2777406444041</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.328464179350712</v>
+        <v>8.19493058247202</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.580775168730222</v>
+        <v>4.565126193557917</v>
       </c>
       <c r="E24">
-        <v>12.92461448814959</v>
+        <v>15.72338890302749</v>
       </c>
       <c r="F24">
-        <v>23.17180284945842</v>
+        <v>21.02264288828724</v>
       </c>
       <c r="G24">
-        <v>3.610671347360737</v>
+        <v>2.049719746772234</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.9878071556903</v>
+        <v>11.28446921019981</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.14529118124353</v>
+        <v>17.86853577251982</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.52152208928561</v>
+        <v>19.57946616586491</v>
       </c>
       <c r="N24">
-        <v>17.76591417757723</v>
+        <v>11.11714659946746</v>
       </c>
       <c r="O24">
-        <v>20.3949596696228</v>
+        <v>15.64490862540307</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.110834687952604</v>
+        <v>7.508217621871416</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.494243883778375</v>
+        <v>4.326745442485891</v>
       </c>
       <c r="E25">
-        <v>12.59754841813815</v>
+        <v>14.26862640003172</v>
       </c>
       <c r="F25">
-        <v>23.02739866717607</v>
+        <v>19.70584455419327</v>
       </c>
       <c r="G25">
-        <v>3.614010098192242</v>
+        <v>2.05912110736353</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.15020192299665</v>
+        <v>11.76757502381166</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.38656180348286</v>
+        <v>16.36332632883949</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.04968220159312</v>
+        <v>17.76313619388232</v>
       </c>
       <c r="N25">
-        <v>17.86648234540651</v>
+        <v>11.47227816311979</v>
       </c>
       <c r="O25">
-        <v>20.4018929221796</v>
+        <v>15.00612222048471</v>
       </c>
     </row>
   </sheetData>
